--- a/test_data/multiple_product/test_data_5x5.xlsx
+++ b/test_data/multiple_product/test_data_5x5.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B78C2-9917-4513-B349-2AE826DF0770}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF936E59-D3E2-43DA-9FDC-17DC104E2614}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="45">
   <si>
     <t>жд</t>
   </si>
@@ -104,9 +105,6 @@
     <t>Имя товара</t>
   </si>
   <si>
-    <t>meat</t>
-  </si>
-  <si>
     <t>C - Стоимость перевозки за тонну или за рейс</t>
   </si>
   <si>
@@ -116,7 +114,49 @@
     <t>Считать стоимость за рейс или за тонну, если за рейс то 1, если за тонну, то 0</t>
   </si>
   <si>
-    <t>potato</t>
+    <t>мука</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Время доставки</t>
+  </si>
+  <si>
+    <t>В чем дать ответ</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Макс. Стоимость</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Какой моделью решать</t>
+  </si>
+  <si>
+    <t>По какому параметру оптимизировать</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Товары, по которым решение должно проводиться вместе</t>
+  </si>
+  <si>
+    <t>fractional</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>помидор</t>
+  </si>
+  <si>
+    <t>мука, помидор</t>
   </si>
 </sst>
 </file>
@@ -534,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +589,25 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>1440</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -581,7 +639,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1413,7 +1471,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="10"/>
       <c r="P32" s="10"/>
@@ -1817,7 +1875,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>1440</v>
@@ -1844,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C942F72C-C11F-4247-B919-BE8B364CE9AF}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1913,25 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>1440</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1887,7 +1963,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2719,7 +2795,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="10"/>
       <c r="P32" s="10"/>
@@ -3123,7 +3199,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>1300</v>
@@ -3139,6 +3215,57 @@
       </c>
       <c r="G50">
         <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6A8C39-9E8E-4018-810D-0FA591D5990C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
